--- a/6/6.xlsx
+++ b/6/6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INFORMATICA\7MO SEMESTRE\INF 354\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INFORMATICA\7MO SEMESTRE\INF 354\1ER PARCIAL\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Poblacion</t>
-  </si>
-  <si>
-    <t>f(x)=x2+1</t>
   </si>
   <si>
     <t>funcion de evaluacion</t>
@@ -67,6 +64,9 @@
   <si>
     <t>3a Generacion</t>
   </si>
+  <si>
+    <t>f(x)=x^(2x)-1</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -190,15 +190,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -262,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -272,25 +263,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,81 +565,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="Q1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="Q1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
+      <c r="J2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19" t="s">
+      <c r="Q2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" t="s">
         <v>8</v>
-      </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -657,82 +649,82 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="15" t="s">
-        <v>7</v>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="15" t="s">
-        <v>7</v>
+      <c r="L3" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="M3" s="17"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="12"/>
+      <c r="O3" s="11"/>
       <c r="Q3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3" s="4"/>
-      <c r="S3" s="15" t="s">
-        <v>7</v>
+      <c r="S3" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="T3" s="17"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="12"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="13"/>
+      <c r="O4" s="12"/>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="13"/>
+      <c r="V4" s="12"/>
       <c r="W4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -743,18 +735,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <f>B5*B5+1</f>
-        <v>170</v>
+        <f>POWER(B5,B5*2)-1</f>
+        <v>9.1733330193268623E+28</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>DEC2BIN(B5,8)</f>
         <v>00001101</v>
       </c>
-      <c r="E5" s="10" t="str">
+      <c r="E5" s="9" t="str">
         <f>LEFT(D5,4)</f>
         <v>0000</v>
       </c>
-      <c r="F5" s="10" t="str">
+      <c r="F5" s="9" t="str">
         <f>RIGHT(D5,4)</f>
         <v>1101</v>
       </c>
@@ -762,27 +754,27 @@
         <f>LEFT(D5,7)&amp;IF(MID(D5,8, 1) = "0", "1", "0")</f>
         <v>00001100</v>
       </c>
-      <c r="H5" s="10" t="str">
+      <c r="H5" s="9" t="str">
         <f>LEFT(G5,6)&amp;IF(MID(G5,7, 1) = "0", "1", "0")&amp;RIGHT(G5,1)</f>
         <v>00001110</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f>BIN2DEC(H5)</f>
         <v>14</v>
       </c>
       <c r="J5" s="3">
-        <f>I5*I5+1</f>
-        <v>197</v>
+        <f>POWER(I5,I5*2)-1</f>
+        <v>1.2347669569124794E+32</v>
       </c>
       <c r="K5" s="4" t="str">
         <f>DEC2BIN(I5,8)</f>
         <v>00001110</v>
       </c>
-      <c r="L5" s="10" t="str">
+      <c r="L5" s="9" t="str">
         <f>LEFT(K5,4)</f>
         <v>0000</v>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="9" t="str">
         <f>RIGHT(K5,4)</f>
         <v>1110</v>
       </c>
@@ -790,7 +782,7 @@
         <f>LEFT(K5,7)&amp;IF(MID(K5,8, 1) = "0", "1", "0")</f>
         <v>00001111</v>
       </c>
-      <c r="O5" s="10" t="str">
+      <c r="O5" s="9" t="str">
         <f>LEFT(N5,6)&amp;IF(MID(N5,7, 1) = "0", "1", "0")&amp;RIGHT(N5,1)</f>
         <v>00001101</v>
       </c>
@@ -799,18 +791,18 @@
         <v>13</v>
       </c>
       <c r="Q5" s="3">
-        <f>P5*P5+1</f>
-        <v>170</v>
+        <f>POWER(P5,P5*2)-1</f>
+        <v>9.1733330193268623E+28</v>
       </c>
       <c r="R5" s="4" t="str">
         <f>DEC2BIN(P5,8)</f>
         <v>00001101</v>
       </c>
-      <c r="S5" s="10" t="str">
+      <c r="S5" s="9" t="str">
         <f>LEFT(R5,4)</f>
         <v>0000</v>
       </c>
-      <c r="T5" s="10" t="str">
+      <c r="T5" s="9" t="str">
         <f>RIGHT(R5,4)</f>
         <v>1101</v>
       </c>
@@ -818,7 +810,7 @@
         <f>LEFT(R5,7)&amp;IF(MID(R5,8, 1) = "0", "1", "0")</f>
         <v>00001100</v>
       </c>
-      <c r="V5" s="10" t="str">
+      <c r="V5" s="9" t="str">
         <f>LEFT(U5,6)&amp;IF(MID(U5,7, 1) = "0", "1", "0")&amp;RIGHT(U5,1)</f>
         <v>00001110</v>
       </c>
@@ -835,18 +827,18 @@
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:C16" si="0">B6*B6+1</f>
-        <v>145</v>
+        <f t="shared" ref="C6:C16" si="0">POWER(B6,B6*2)-1</f>
+        <v>7.9496847203390844E+25</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" ref="D6:D16" si="1">DEC2BIN(B6,8)</f>
         <v>00001100</v>
       </c>
-      <c r="E6" s="10" t="str">
-        <f t="shared" ref="E6:F6" si="2">LEFT(D6,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="9" t="str">
+        <f t="shared" ref="E6" si="2">LEFT(D6,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F6" s="9" t="str">
         <f t="shared" ref="F6:F16" si="3">RIGHT(D6,4)</f>
         <v>1100</v>
       </c>
@@ -854,27 +846,27 @@
         <f t="shared" ref="G6:G16" si="4">LEFT(D6,7)&amp;IF(MID(D6,8, 1) = "0", "1", "0")</f>
         <v>00001101</v>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="9" t="str">
         <f t="shared" ref="H6:H16" si="5">LEFT(G6,6)&amp;IF(MID(G6,7, 1) = "0", "1", "0")&amp;RIGHT(G6,1)</f>
         <v>00001111</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f t="shared" ref="I6:I16" si="6">BIN2DEC(H6)</f>
         <v>15</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:J16" si="7">I6*I6+1</f>
-        <v>226</v>
+        <f t="shared" ref="J6:J16" si="7">POWER(I6,I6*2)-1</f>
+        <v>1.9175105923288408E+35</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" ref="K6:K16" si="8">DEC2BIN(I6,8)</f>
         <v>00001111</v>
       </c>
-      <c r="L6" s="10" t="str">
-        <f t="shared" ref="L6:M6" si="9">LEFT(K6,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M6" s="10" t="str">
+      <c r="L6" s="9" t="str">
+        <f t="shared" ref="L6" si="9">LEFT(K6,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M6" s="9" t="str">
         <f t="shared" ref="M6:M16" si="10">RIGHT(K6,4)</f>
         <v>1111</v>
       </c>
@@ -882,7 +874,7 @@
         <f t="shared" ref="N6:N16" si="11">LEFT(K6,7)&amp;IF(MID(K6,8, 1) = "0", "1", "0")</f>
         <v>00001110</v>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="O6" s="9" t="str">
         <f t="shared" ref="O6:O16" si="12">LEFT(N6,6)&amp;IF(MID(N6,7, 1) = "0", "1", "0")&amp;RIGHT(N6,1)</f>
         <v>00001100</v>
       </c>
@@ -891,26 +883,26 @@
         <v>12</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q16" si="14">P6*P6+1</f>
-        <v>145</v>
+        <f t="shared" ref="Q6:Q16" si="14">POWER(P6,P6*2)-1</f>
+        <v>7.9496847203390844E+25</v>
       </c>
       <c r="R6" s="4" t="str">
         <f t="shared" ref="R6:R16" si="15">DEC2BIN(P6,8)</f>
         <v>00001100</v>
       </c>
-      <c r="S6" s="10" t="str">
-        <f t="shared" ref="S6:T16" si="16">LEFT(R6,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="T6" s="10" t="str">
-        <f t="shared" ref="T6:U16" si="17">RIGHT(R6,4)</f>
+      <c r="S6" s="9" t="str">
+        <f t="shared" ref="S6:S16" si="16">LEFT(R6,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="T6" s="9" t="str">
+        <f t="shared" ref="T6:T16" si="17">RIGHT(R6,4)</f>
         <v>1100</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" ref="U6:U16" si="18">LEFT(R6,7)&amp;IF(MID(R6,8, 1) = "0", "1", "0")</f>
         <v>00001101</v>
       </c>
-      <c r="V6" s="10" t="str">
+      <c r="V6" s="9" t="str">
         <f t="shared" ref="V6:V16" si="19">LEFT(U6,6)&amp;IF(MID(U6,7, 1) = "0", "1", "0")&amp;RIGHT(U6,1)</f>
         <v>00001111</v>
       </c>
@@ -928,17 +920,17 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>8.1402749386839762E+22</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00001011</v>
       </c>
-      <c r="E7" s="10" t="str">
-        <f t="shared" ref="E7:F7" si="21">LEFT(D7,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F7" s="10" t="str">
+      <c r="E7" s="9" t="str">
+        <f t="shared" ref="E7" si="21">LEFT(D7,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F7" s="9" t="str">
         <f t="shared" si="3"/>
         <v>1011</v>
       </c>
@@ -946,27 +938,27 @@
         <f t="shared" si="4"/>
         <v>00001010</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00001000</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>281474976710655</v>
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
-      <c r="L7" s="10" t="str">
-        <f t="shared" ref="L7:M7" si="22">LEFT(K7,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M7" s="10" t="str">
+      <c r="L7" s="9" t="str">
+        <f t="shared" ref="L7" si="22">LEFT(K7,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M7" s="9" t="str">
         <f t="shared" si="10"/>
         <v>1000</v>
       </c>
@@ -974,7 +966,7 @@
         <f t="shared" si="11"/>
         <v>00001001</v>
       </c>
-      <c r="O7" s="10" t="str">
+      <c r="O7" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00001011</v>
       </c>
@@ -984,17 +976,17 @@
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="14"/>
-        <v>122</v>
+        <v>8.1402749386839762E+22</v>
       </c>
       <c r="R7" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00001011</v>
       </c>
-      <c r="S7" s="10" t="str">
+      <c r="S7" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T7" s="10" t="str">
+      <c r="T7" s="9" t="str">
         <f t="shared" si="17"/>
         <v>1011</v>
       </c>
@@ -1002,7 +994,7 @@
         <f t="shared" si="18"/>
         <v>00001010</v>
       </c>
-      <c r="V7" s="10" t="str">
+      <c r="V7" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00001000</v>
       </c>
@@ -1020,17 +1012,17 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>1E+20</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00001010</v>
       </c>
-      <c r="E8" s="10" t="str">
-        <f t="shared" ref="E8:F8" si="23">LEFT(D8,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F8" s="10" t="str">
+      <c r="E8" s="9" t="str">
+        <f t="shared" ref="E8" si="23">LEFT(D8,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F8" s="9" t="str">
         <f t="shared" si="3"/>
         <v>1010</v>
       </c>
@@ -1038,27 +1030,27 @@
         <f t="shared" si="4"/>
         <v>00001011</v>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00001001</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>1.5009463529699914E+17</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00001001</v>
       </c>
-      <c r="L8" s="10" t="str">
-        <f t="shared" ref="L8:M8" si="24">LEFT(K8,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M8" s="10" t="str">
+      <c r="L8" s="9" t="str">
+        <f t="shared" ref="L8" si="24">LEFT(K8,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M8" s="9" t="str">
         <f t="shared" si="10"/>
         <v>1001</v>
       </c>
@@ -1066,7 +1058,7 @@
         <f t="shared" si="11"/>
         <v>00001000</v>
       </c>
-      <c r="O8" s="10" t="str">
+      <c r="O8" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00001010</v>
       </c>
@@ -1076,17 +1068,17 @@
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="14"/>
-        <v>101</v>
+        <v>1E+20</v>
       </c>
       <c r="R8" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00001010</v>
       </c>
-      <c r="S8" s="10" t="str">
+      <c r="S8" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T8" s="10" t="str">
+      <c r="T8" s="9" t="str">
         <f t="shared" si="17"/>
         <v>1010</v>
       </c>
@@ -1094,7 +1086,7 @@
         <f t="shared" si="18"/>
         <v>00001011</v>
       </c>
-      <c r="V8" s="10" t="str">
+      <c r="V8" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00001001</v>
       </c>
@@ -1112,17 +1104,17 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>1.5009463529699914E+17</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00001001</v>
       </c>
-      <c r="E9" s="10" t="str">
-        <f t="shared" ref="E9:F9" si="25">LEFT(D9,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F9" s="10" t="str">
+      <c r="E9" s="9" t="str">
+        <f t="shared" ref="E9" si="25">LEFT(D9,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F9" s="9" t="str">
         <f t="shared" si="3"/>
         <v>1001</v>
       </c>
@@ -1130,27 +1122,27 @@
         <f t="shared" si="4"/>
         <v>00001000</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00001010</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="7"/>
-        <v>101</v>
+        <v>1E+20</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00001010</v>
       </c>
-      <c r="L9" s="10" t="str">
-        <f t="shared" ref="L9:M9" si="26">LEFT(K9,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M9" s="10" t="str">
+      <c r="L9" s="9" t="str">
+        <f t="shared" ref="L9" si="26">LEFT(K9,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M9" s="9" t="str">
         <f t="shared" si="10"/>
         <v>1010</v>
       </c>
@@ -1158,7 +1150,7 @@
         <f t="shared" si="11"/>
         <v>00001011</v>
       </c>
-      <c r="O9" s="10" t="str">
+      <c r="O9" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00001001</v>
       </c>
@@ -1168,17 +1160,17 @@
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="14"/>
-        <v>82</v>
+        <v>1.5009463529699914E+17</v>
       </c>
       <c r="R9" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00001001</v>
       </c>
-      <c r="S9" s="10" t="str">
+      <c r="S9" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T9" s="10" t="str">
+      <c r="T9" s="9" t="str">
         <f t="shared" si="17"/>
         <v>1001</v>
       </c>
@@ -1186,7 +1178,7 @@
         <f t="shared" si="18"/>
         <v>00001000</v>
       </c>
-      <c r="V9" s="10" t="str">
+      <c r="V9" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00001010</v>
       </c>
@@ -1204,17 +1196,17 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>281474976710655</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00001000</v>
       </c>
-      <c r="E10" s="10" t="str">
-        <f t="shared" ref="E10:F10" si="27">LEFT(D10,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F10" s="10" t="str">
+      <c r="E10" s="9" t="str">
+        <f t="shared" ref="E10" si="27">LEFT(D10,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F10" s="9" t="str">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
@@ -1222,27 +1214,27 @@
         <f t="shared" si="4"/>
         <v>00001001</v>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H10" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00001011</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>8.1402749386839762E+22</v>
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00001011</v>
       </c>
-      <c r="L10" s="10" t="str">
-        <f t="shared" ref="L10:M10" si="28">LEFT(K10,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M10" s="10" t="str">
+      <c r="L10" s="9" t="str">
+        <f t="shared" ref="L10" si="28">LEFT(K10,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M10" s="9" t="str">
         <f t="shared" si="10"/>
         <v>1011</v>
       </c>
@@ -1250,7 +1242,7 @@
         <f t="shared" si="11"/>
         <v>00001010</v>
       </c>
-      <c r="O10" s="10" t="str">
+      <c r="O10" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00001000</v>
       </c>
@@ -1260,17 +1252,17 @@
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>281474976710655</v>
       </c>
       <c r="R10" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00001000</v>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="9" t="str">
         <f t="shared" si="17"/>
         <v>1000</v>
       </c>
@@ -1278,7 +1270,7 @@
         <f t="shared" si="18"/>
         <v>00001001</v>
       </c>
-      <c r="V10" s="10" t="str">
+      <c r="V10" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00001011</v>
       </c>
@@ -1296,17 +1288,17 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>678223072848</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00000111</v>
       </c>
-      <c r="E11" s="10" t="str">
-        <f t="shared" ref="E11:F11" si="29">LEFT(D11,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F11" s="10" t="str">
+      <c r="E11" s="9" t="str">
+        <f t="shared" ref="E11" si="29">LEFT(D11,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F11" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0111</v>
       </c>
@@ -1314,27 +1306,27 @@
         <f t="shared" si="4"/>
         <v>00000110</v>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H11" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00000100</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>65535</v>
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00000100</v>
       </c>
-      <c r="L11" s="10" t="str">
-        <f t="shared" ref="L11:M11" si="30">LEFT(K11,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M11" s="10" t="str">
+      <c r="L11" s="9" t="str">
+        <f t="shared" ref="L11" si="30">LEFT(K11,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M11" s="9" t="str">
         <f t="shared" si="10"/>
         <v>0100</v>
       </c>
@@ -1342,7 +1334,7 @@
         <f t="shared" si="11"/>
         <v>00000101</v>
       </c>
-      <c r="O11" s="10" t="str">
+      <c r="O11" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00000111</v>
       </c>
@@ -1352,17 +1344,17 @@
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>678223072848</v>
       </c>
       <c r="R11" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00000111</v>
       </c>
-      <c r="S11" s="10" t="str">
+      <c r="S11" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T11" s="10" t="str">
+      <c r="T11" s="9" t="str">
         <f t="shared" si="17"/>
         <v>0111</v>
       </c>
@@ -1370,7 +1362,7 @@
         <f t="shared" si="18"/>
         <v>00000110</v>
       </c>
-      <c r="V11" s="10" t="str">
+      <c r="V11" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00000100</v>
       </c>
@@ -1388,17 +1380,17 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>2176782335</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00000110</v>
       </c>
-      <c r="E12" s="10" t="str">
-        <f t="shared" ref="E12:F12" si="31">LEFT(D12,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F12" s="10" t="str">
+      <c r="E12" s="9" t="str">
+        <f t="shared" ref="E12" si="31">LEFT(D12,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F12" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0110</v>
       </c>
@@ -1406,27 +1398,27 @@
         <f t="shared" si="4"/>
         <v>00000111</v>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00000101</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>9765624</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00000101</v>
       </c>
-      <c r="L12" s="10" t="str">
-        <f t="shared" ref="L12:M12" si="32">LEFT(K12,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M12" s="10" t="str">
+      <c r="L12" s="9" t="str">
+        <f t="shared" ref="L12" si="32">LEFT(K12,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M12" s="9" t="str">
         <f t="shared" si="10"/>
         <v>0101</v>
       </c>
@@ -1434,7 +1426,7 @@
         <f t="shared" si="11"/>
         <v>00000100</v>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="O12" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00000110</v>
       </c>
@@ -1444,17 +1436,17 @@
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="14"/>
-        <v>37</v>
+        <v>2176782335</v>
       </c>
       <c r="R12" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00000110</v>
       </c>
-      <c r="S12" s="10" t="str">
+      <c r="S12" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T12" s="10" t="str">
+      <c r="T12" s="9" t="str">
         <f t="shared" si="17"/>
         <v>0110</v>
       </c>
@@ -1462,7 +1454,7 @@
         <f t="shared" si="18"/>
         <v>00000111</v>
       </c>
-      <c r="V12" s="10" t="str">
+      <c r="V12" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00000101</v>
       </c>
@@ -1480,17 +1472,17 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>9765624</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00000101</v>
       </c>
-      <c r="E13" s="10" t="str">
-        <f t="shared" ref="E13:F13" si="33">LEFT(D13,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F13" s="10" t="str">
+      <c r="E13" s="9" t="str">
+        <f t="shared" ref="E13" si="33">LEFT(D13,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F13" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0101</v>
       </c>
@@ -1498,27 +1490,27 @@
         <f t="shared" si="4"/>
         <v>00000100</v>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00000110</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="7"/>
-        <v>37</v>
+        <v>2176782335</v>
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00000110</v>
       </c>
-      <c r="L13" s="10" t="str">
-        <f t="shared" ref="L13:M13" si="34">LEFT(K13,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M13" s="10" t="str">
+      <c r="L13" s="9" t="str">
+        <f t="shared" ref="L13" si="34">LEFT(K13,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M13" s="9" t="str">
         <f t="shared" si="10"/>
         <v>0110</v>
       </c>
@@ -1526,7 +1518,7 @@
         <f t="shared" si="11"/>
         <v>00000111</v>
       </c>
-      <c r="O13" s="10" t="str">
+      <c r="O13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00000101</v>
       </c>
@@ -1536,17 +1528,17 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="14"/>
-        <v>26</v>
+        <v>9765624</v>
       </c>
       <c r="R13" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00000101</v>
       </c>
-      <c r="S13" s="10" t="str">
+      <c r="S13" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T13" s="10" t="str">
+      <c r="T13" s="9" t="str">
         <f t="shared" si="17"/>
         <v>0101</v>
       </c>
@@ -1554,7 +1546,7 @@
         <f t="shared" si="18"/>
         <v>00000100</v>
       </c>
-      <c r="V13" s="10" t="str">
+      <c r="V13" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00000110</v>
       </c>
@@ -1572,17 +1564,17 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>65535</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00000100</v>
       </c>
-      <c r="E14" s="10" t="str">
-        <f t="shared" ref="E14:F14" si="35">LEFT(D14,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F14" s="10" t="str">
+      <c r="E14" s="9" t="str">
+        <f t="shared" ref="E14" si="35">LEFT(D14,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F14" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0100</v>
       </c>
@@ -1590,27 +1582,27 @@
         <f t="shared" si="4"/>
         <v>00000101</v>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00000111</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>678223072848</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00000111</v>
       </c>
-      <c r="L14" s="10" t="str">
-        <f t="shared" ref="L14:M14" si="36">LEFT(K14,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M14" s="10" t="str">
+      <c r="L14" s="9" t="str">
+        <f t="shared" ref="L14" si="36">LEFT(K14,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M14" s="9" t="str">
         <f t="shared" si="10"/>
         <v>0111</v>
       </c>
@@ -1618,7 +1610,7 @@
         <f t="shared" si="11"/>
         <v>00000110</v>
       </c>
-      <c r="O14" s="10" t="str">
+      <c r="O14" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00000100</v>
       </c>
@@ -1628,17 +1620,17 @@
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>65535</v>
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00000100</v>
       </c>
-      <c r="S14" s="10" t="str">
+      <c r="S14" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T14" s="10" t="str">
+      <c r="T14" s="9" t="str">
         <f t="shared" si="17"/>
         <v>0100</v>
       </c>
@@ -1646,7 +1638,7 @@
         <f t="shared" si="18"/>
         <v>00000101</v>
       </c>
-      <c r="V14" s="10" t="str">
+      <c r="V14" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00000111</v>
       </c>
@@ -1664,17 +1656,17 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>728</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00000011</v>
       </c>
-      <c r="E15" s="10" t="str">
-        <f t="shared" ref="E15:F15" si="37">LEFT(D15,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F15" s="10" t="str">
+      <c r="E15" s="9" t="str">
+        <f t="shared" ref="E15" si="37">LEFT(D15,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F15" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0011</v>
       </c>
@@ -1682,27 +1674,27 @@
         <f t="shared" si="4"/>
         <v>00000010</v>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="H15" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J15" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
+      <c r="J15" s="3" t="e">
+        <f>POWER(I15,I15*2)-1</f>
+        <v>#NUM!</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
-      <c r="L15" s="10" t="str">
-        <f t="shared" ref="L15:M15" si="38">LEFT(K15,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M15" s="10" t="str">
+      <c r="L15" s="9" t="str">
+        <f t="shared" ref="L15" si="38">LEFT(K15,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M15" s="9" t="str">
         <f t="shared" si="10"/>
         <v>0000</v>
       </c>
@@ -1710,7 +1702,7 @@
         <f t="shared" si="11"/>
         <v>00000001</v>
       </c>
-      <c r="O15" s="10" t="str">
+      <c r="O15" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00000011</v>
       </c>
@@ -1720,17 +1712,17 @@
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>728</v>
       </c>
       <c r="R15" s="4" t="str">
         <f t="shared" si="15"/>
         <v>00000011</v>
       </c>
-      <c r="S15" s="10" t="str">
+      <c r="S15" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T15" s="10" t="str">
+      <c r="T15" s="9" t="str">
         <f t="shared" si="17"/>
         <v>0011</v>
       </c>
@@ -1738,7 +1730,7 @@
         <f t="shared" si="18"/>
         <v>00000010</v>
       </c>
-      <c r="V15" s="10" t="str">
+      <c r="V15" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00000000</v>
       </c>
@@ -1754,19 +1746,19 @@
       <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D16" s="9" t="str">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>00000001</v>
       </c>
-      <c r="E16" s="10" t="str">
-        <f t="shared" ref="E16:F16" si="39">LEFT(D16,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F16" s="10" t="str">
+      <c r="E16" s="9" t="str">
+        <f t="shared" ref="E16" si="39">LEFT(D16,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F16" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0001</v>
       </c>
@@ -1774,27 +1766,27 @@
         <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="9" t="str">
         <f t="shared" si="5"/>
         <v>00000010</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="3">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="K16" s="9" t="str">
+        <v>15</v>
+      </c>
+      <c r="K16" s="8" t="str">
         <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
-      <c r="L16" s="10" t="str">
-        <f t="shared" ref="L16:M16" si="40">LEFT(K16,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="M16" s="10" t="str">
+      <c r="L16" s="9" t="str">
+        <f t="shared" ref="L16" si="40">LEFT(K16,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="M16" s="9" t="str">
         <f t="shared" si="10"/>
         <v>0010</v>
       </c>
@@ -1802,7 +1794,7 @@
         <f t="shared" si="11"/>
         <v>00000011</v>
       </c>
-      <c r="O16" s="10" t="str">
+      <c r="O16" s="9" t="str">
         <f t="shared" si="12"/>
         <v>00000001</v>
       </c>
@@ -1810,19 +1802,19 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="3">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="R16" s="9" t="str">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00000001</v>
       </c>
-      <c r="S16" s="10" t="str">
+      <c r="S16" s="9" t="str">
         <f t="shared" si="16"/>
         <v>0000</v>
       </c>
-      <c r="T16" s="10" t="str">
+      <c r="T16" s="9" t="str">
         <f t="shared" si="17"/>
         <v>0001</v>
       </c>
@@ -1830,7 +1822,7 @@
         <f t="shared" si="18"/>
         <v>00000000</v>
       </c>
-      <c r="V16" s="10" t="str">
+      <c r="V16" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00000010</v>
       </c>
